--- a/data/hormones.xlsx
+++ b/data/hormones.xlsx
@@ -491,14 +491,26 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Insulin decreases blood glucose concentration. It increases cell permeability to monosaccharides, amino acids and fatty acids. It accelerates glycolysis, the pentose phosphate cycle, and glycogen synthesis in liver</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>INS</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Insulin processing</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40598676,40598574,40597964,40597485,40597295 </t>
+          <t xml:space="preserve">UniProt:P01308 PubMed:40600329,40600018,40598917,40598676,40598585 Reactome:R-HSA-264876 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -514,14 +526,26 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Plays a key role in glucose metabolism and homeostasis. Regulates blood glucose by increasing gluconeogenesis and decreasing glycolysis. A counterregulatory hormone of insulin, raises plasma glucose levels in response to insulin-induced hypoglycemia. Plays an important role in initiating and maintaining hyperglycemic conditions in diabetes</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GCG</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Glucagon signaling pathway</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40597541,40597179,40594279,40593987,40592472 </t>
+          <t xml:space="preserve">UniProt:P01275 PubMed:40597541,40597179,40594279,40593987,40592472 Reactome:R-HSA-163359 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -537,17 +561,33 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Functions as an androgen transport protein, but may also be involved in receptor mediated processes. Each dimer binds one molecule of steroid. Specific for 5-alpha-dihydrotestosterone, testosterone, and 17-beta-estradiol. Regulates the plasma metabolic clearance rate of steroid hormones by controlling their plasma concentration</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SHBG</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Androgen receptor signaling pathway</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40598691,40597942,40597295,40597010,40595890 </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t xml:space="preserve">UniProt:P04278 PubMed:40598691,40597942,40597295,40597010,40595890 Reactome:R-HSA-193993 </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Sex steroid-binding protein, Testis-specific androgen-binding protein, Testosterone-estradiol-binding globulin, Testosterone-estrogen-binding globulin</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -560,17 +600,33 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sulfotransferase that utilizes 3'-phospho-5'-adenylyl sulfate (PAPS) as sulfonate donor to catalyze the sulfate conjugation of estradiol and estrone (PubMed:11006110, PubMed:11884392, PubMed:7779757). Is a key enzyme in estrogen homeostasis, the sulfation of estrogens leads to their inactivation. Also sulfates dehydroepiandrosterone (DHEA), pregnenolone, (24S)-hydroxycholesterol and xenobiotic compounds like ethinylestradiol, equalenin, diethyl stilbesterol and 1-naphthol at significantly lower efficiency (PubMed:11006110, PubMed:19589875). Does not sulfonate cortisol, testosterone and dopamine (PubMed:11006110, PubMed:7779757). May play a role in gut microbiota-host metabolic interaction. O-sulfonates 4-ethylphenol (4-EP), a dietary tyrosine-derived metabolite produced by gut bacteria. The product 4-EPS crosses the blood-brain barrier and may negatively regulate oligodendrocyte maturation and myelination, affecting the functional connectivity of different brain regions associated with the limbic system</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SULT1E1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Estrogen-dependent gene expression</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40600231,40599853,40597935,40596830,40596550 </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t xml:space="preserve">UniProt:P49888 PubMed:40600231,40599853,40597935,40597894,40596830 Reactome:R-HSA-8939211 </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>EST-1, Estrogen sulfotransferase, Sulfotransferase, estrogen-preferring</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -583,17 +639,33 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Major transport protein for glucocorticoids and progestins in the blood of almost all vertebrate species</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SERPINA6</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Glucocorticoid receptor pathway</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40598676,40597247,40597059,40596833,40596030 </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t xml:space="preserve">UniProt:P08185 PubMed:40598676,40597594,40597247,40597059,40596833 Reactome:R-HSA-196071 </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Serpin A6, Transcortin</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -606,17 +678,29 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Major thyroid hormone transport protein in serum</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SERPINA7</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40600010,40599024,40597059,40597049,40588756 </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t xml:space="preserve">UniProt:P05543 PubMed:40600010,40599024,40598574,40597059,40597049 </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Serpin A7, T4-binding globulin</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -629,17 +713,33 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Electrogenic voltage-dependent transporter that mediates the transport of a variety of endogenous bioactive amines, cationic xenobiotics and drugs (PubMed:15448143, PubMed:16099839, PubMed:16873718, PubMed:17018840, PubMed:17121826, PubMed:20592246, PubMed:20858707, PubMed:22396231, PubMed:31537831). Utilizes the physiologic inside-negative membrane potential as a driving force to facilitate cellular uptake of organic cations (PubMed:15448143, PubMed:20592246, PubMed:22396231). Functions as a Na(+)- and Cl(-)-independent bidirectional transporter (PubMed:15448143, PubMed:16099839, PubMed:22396231, PubMed:31537831). Substrate transport is pH-dependent and enhanced under acidic condition, which is most likely the result of allosteric changes in the transporter structure (PubMed:16873718, PubMed:17018840, PubMed:20592246, PubMed:22396231, PubMed:31537831). Implicated in monoamine neurotransmitters uptake such as serotonin, dopamine, adrenaline/epinephrine, noradrenaline/norepinephrine, histamine and tyramine, thereby supporting a role in homeostatic regulation of aminergic neurotransmission in the central nervous system (PubMed:15448143, PubMed:16099839, PubMed:17018840, PubMed:17121826, PubMed:20858707, PubMed:22396231). Also responsible for the uptake of bioactive amines and drugs through the blood-cerebrospinal fluid (CSF) barrier, from the CSF into choroid plexus epithelial cells, thereby playing a significant role in the clearance of cationic neurotoxins, xenobiotics and metabolic waste in the brain (By similarity). Involved in bidirectional transport of the purine nucleoside adenosine and plays a role in the regulation of extracellular adenosine concentrations in cardiac tissues, in particular during ischemia (PubMed:16873718, PubMed:20592246, PubMed:31537831). May be involved in organic cation uptake from the tubular lumen into renal tubular cells, thereby contributing to organic cation reabsorption in the kidney (PubMed:17018840). Also transports guanidine (PubMed:16099839)</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SLC29A4</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Adrenaline, noradrenaline and dopamine biosynthesis</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40596326,40586905,40584511,40498670,40486646 </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t xml:space="preserve">UniProt:Q7RTT9 PubMed:40596326,40586905,40584511,40498670,40486646 Reactome:R-HSA-181438 </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Plasma membrane monoamine transporter, Solute carrier family 29 member 4</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -652,17 +752,33 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Catalyzes the transmethylation of nonepinephrine (noradrenaline) to form epinephrine (adrenaline), using S-adenosyl-L-methionine as the methyl donor (PubMed:20496117). Other substrates include phenylethanolamine and octopamine (PubMed:16277617, PubMed:16363801, PubMed:8812853). Also methylates normetanephrine (By similarity)</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PNMT</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Adrenaline, noradrenaline and dopamine biosynthesis</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40593679,40586905,40563433,40544565,40520658 </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t xml:space="preserve">UniProt:P11086 PubMed:40593679,40586905,40563433,40544565,40520658 Reactome:R-HSA-181438 </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Noradrenaline N-methyltransferase</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -675,14 +791,26 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>High affinity receptor for melatonin. Likely to mediate the reproductive and circadian actions of melatonin. The activity of this receptor is mediated by pertussis toxin sensitive G proteins that inhibit adenylate cyclase activity. Possibly involved in sleep induction, by melatonin activation of the potassium channel KCNMA1/BK and the dissociation of G-beta and G-gamma subunits, thereby decreasing synaptic transmission (By similarity)</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MTNR1A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Melatonin biosynthesis</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40599499,40598783,40592456,40589095,40588412 </t>
+          <t xml:space="preserve">UniProt:P48039 PubMed:40599499,40598828,40598783,40598430,40592456 Reactome:R-HSA-1368082 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -698,17 +826,33 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Receptor for pituitary gland growth hormone (GH1) involved in regulating postnatal body growth (PubMed:1549776, PubMed:2825030, PubMed:8943276). On ligand binding, couples to the JAK2/STAT5 pathway (PubMed:1549776, PubMed:15690087, PubMed:2825030, PubMed:8943276)</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GHR</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Developmental Biology</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40600231,40600179,40600079,40599856,40599421 </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t xml:space="preserve">UniProt:P10912 PubMed:40600231,40600179,40600079,40599856,40599421 Reactome:R-HSA-1266738 </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Somatotropin receptor</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -721,14 +865,26 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Prolactin acts primarily on the mammary gland by promoting lactation</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PRL</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Developmental Biology</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40599499,40599421,40590355,40590286,40586298 </t>
+          <t xml:space="preserve">UniProt:P01236 PubMed:40599499,40599421,40590355,40590286,40586298 Reactome:R-HSA-1266738 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -744,14 +900,26 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Neurophysin 1 specifically binds oxytocin</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>OXT</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Neuropeptide signaling</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40597247,40596326,40580104,40565372,40559820 </t>
+          <t xml:space="preserve">UniProt:P01178 PubMed:40598521,40597247,40596326,40580104,40565372 Reactome:R-HSA-1368082 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -767,17 +935,33 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Specifically binds vasopressin</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AVP</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Neuropeptide signaling</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40581268,40569148,40564913,40551562,40535310 </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t xml:space="preserve">UniProt:P01185 PubMed:40581268,40569148,40564913,40551562,40535310 Reactome:R-HSA-1368082 </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>AVP-NPII</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -790,17 +974,33 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Key player in the regulation of energy balance and body weight control. Once released into the circulation, has central and peripheral effects by binding LEPR, found in many tissues, which results in the activation of several major signaling pathways (PubMed:15899045, PubMed:17344214, PubMed:19688109). In the hypothalamus, acts as an appetite-regulating factor that induces a decrease in food intake and an increase in energy consumption by inducing anorexinogenic factors and suppressing orexigenic neuropeptides, also regulates bone mass and secretion of hypothalamo-pituitary-adrenal hormones. In the periphery, increases basal metabolism, influences reproductive function, regulates pancreatic beta-cell function and insulin secretion, is pro-angiogenic for endothelial cell and affects innate and adaptive immunity (By similarity) (PubMed:11460888, PubMed:19688109, PubMed:24340098, PubMed:25060689, PubMed:8589726). In the arcuate nucleus of the hypothalamus, activates by depolarization POMC neurons inducing FOS and SOCS3 expression to release anorexigenic peptides and inhibits by hyperpolarization NPY neurons inducing SOCS3 with a consequent reduction on release of orexigenic peptides (By similarity). In addition to its known satiety inducing effect, has a modulatory role in nutrient absorption. In the intestine, reduces glucose absorption by enterocytes by activating PKC and leading to a sequential activation of p38, PI3K and ERK signaling pathways which exerts an inhibitory effect on glucose absorption (PubMed:24340098). Acts as a growth factor on certain tissues, through the activation of different signaling pathways increases expression of genes involved in cell cycle regulation such as CCND1, via JAK2-STAT3 pathway, or VEGFA, via MAPK1/3 and PI3K-AKT1 pathways (By similarity) (PubMed:17344214). May also play an apoptotic role via JAK2-STAT3 pathway and up-regulation of BIRC5 expression (PubMed:18242580). Pro-angiogenic, has mitogenic activity on vascular endothelial cells and plays a role in matrix remodeling by regulating the expression of matrix metalloproteinases (MMPs) and tissue inhibitors of metalloproteinases (TIMPs) (PubMed:11460888). In innate immunity, modulates the activity and function of neutrophils by increasing chemotaxis and the secretion of oxygen radicals. Increases phagocytosis by macrophages and enhances secretion of pro-inflammatory mediators. Increases cytotoxic ability of NK cells (PubMed:12504075). Plays a pro-inflammatory role, in synergy with IL1B, by inducing NOS2 which promotes the production of IL6, IL8 and Prostaglandin E2, through a signaling pathway that involves JAK2, PI3K, MAP2K1/MEK1 and MAPK14/p38 (PubMed:15899045, PubMed:19688109). In adaptive immunity, promotes the switch of memory T-cells towards T helper-1 cell immune responses (By similarity). Increases CD4(+)CD25(-) T-cell proliferation and reduces autophagy during TCR (T-cell receptor) stimulation, through MTOR signaling pathway activation and BCL2 up-regulation (PubMed:25060689)</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>LEP</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Signaling by Leptin</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40597485,40596030,40590369,40586327,40585323 </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t xml:space="preserve">UniProt:P41159 PubMed:40597485,40596030,40590369,40586327,40585323 Reactome:R-HSA-2586552 </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Obese protein, Obesity factor</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -813,17 +1013,33 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ghrelin is the ligand for growth hormone secretagogue receptor type 1 (GHSR) (PubMed:10604470). Induces the release of growth hormone from the pituitary (PubMed:10604470). Has an appetite-stimulating effect, induces adiposity and stimulates gastric acid secretion. Involved in growth regulation</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GHRL</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Neuropeptide signaling</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40595538,40587525,40564319,40552863,40544338 </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t xml:space="preserve">UniProt:Q9UBU3 PubMed:40601073,40595538,40587525,40564319,40552863 Reactome:R-HSA-1368082 </t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Growth hormone secretagogue, Growth hormone-releasing peptide, Motilin-related peptide, Protein M46</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -836,17 +1052,33 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Receptor for the thyroid-stimulating hormone (TSH) or thyrotropin (PubMed:11847099, PubMed:12045258). Also acts as a receptor for the heterodimeric glycoprotein hormone (GPHA2:GPHB5) or thyrostimulin (PubMed:12045258). The activity of this receptor is mediated by G proteins which activate adenylate cyclase (PubMed:11847099). Plays a central role in controlling thyroid cell metabolism (By similarity)</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>TSHR</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Developmental Biology</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40600010,40599281,40599024,40598088,40597059 </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t xml:space="preserve">UniProt:P16473 PubMed:40600010,40599281,40599024,40598088,40597059 Reactome:R-HSA-1266738 </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Thyroid-stimulating hormone receptor</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -859,17 +1091,33 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>G protein-coupled receptor for follitropin, the follicle-stimulating hormone (PubMed:11847099, PubMed:24058690, PubMed:24692546). Through cAMP production activates the downstream PI3K-AKT and ERK1/ERK2 signaling pathways (PubMed:24058690)</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FSHR</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Developmental Biology</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40598218,40597965,40590303,40589620,40587267 </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t xml:space="preserve">UniProt:P23945 PubMed:40598218,40597965,40590303,40589620,40587267 Reactome:R-HSA-1266738 </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Follitropin receptor</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -882,17 +1130,33 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Receptor for lutropin-choriogonadotropic hormone (PubMed:11847099). The activity of this receptor is mediated by G proteins which activate adenylate cyclase (PubMed:11847099)</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>LHCGR</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Developmental Biology</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40598218,40597965,40595313,40590303,40590286 </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t xml:space="preserve">UniProt:P22888 PubMed:40598218,40597965,40595313,40590303,40590286 Reactome:R-HSA-1266738 </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Luteinizing hormone receptor</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -905,17 +1169,33 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Hormone receptor primarily expressed in adrenal cortex that plays a key role in regulating adrenocortical function (PubMed:36588120). Upon corticotropin (ACTH) binding, facilitates the release of adrenal glucocorticoids, including cortisol and corticosterone. In addition, MC2R is required for fetal and neonatal adrenal gland development (By similarity). Mechanistically, activates adenylate cyclase (cAMP), the MAPK cascade as well as the cAMP-dependent protein kinase A pathway leading to steroidogenic factor 1/NR5A1-mediated transcriptional activation (By similarity)</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MC2R</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Neuropeptide signaling</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40597717,40594483,40587685,40586400,40584406 </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t xml:space="preserve">UniProt:Q01718 PubMed:40597717,40594483,40587685,40586400,40584406 Reactome:R-HSA-1368082 </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Adrenocorticotropin receptor, Melanocortin receptor 2</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -928,17 +1208,33 @@
           <t>hormone</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A cytochrome P450 monooxygenase that catalyzes the biosynthesis of aldosterone, the main mineralocorticoid in the human body responsible for salt and water homeostasis, thus involved in blood pressure regulation, arterial hypertension, and the development of heart failure (PubMed:11856349, PubMed:12530636, PubMed:1518866, PubMed:15356073, PubMed:1594605, PubMed:1775135, PubMed:22446688, PubMed:23322723, PubMed:9814482, PubMed:9814506). Catalyzes three sequential oxidative reactions of 11-deoxycorticosterone (21-hydroxyprogesterone), namely 11-beta hydroxylation, followed by two successive oxidations at C18 yielding 18-hydroxy and then 18-oxo intermediates (that would not leave the enzyme active site during the consecutive hydroxylation reactions), ending with the formation of aldosterone (PubMed:11856349, PubMed:12530636, PubMed:1518866, PubMed:1594605, PubMed:1775135, PubMed:22446688, PubMed:23322723, PubMed:9814506). Can also produce 18-hydroxycortisol and 18-oxocortisol, derived from successive oxidations of cortisol at C18, normally found at very low levels, but significantly increased in primary aldosteronism, the most common form of secondary hypertension (PubMed:15356073, PubMed:9814482). Mechanistically, uses molecular oxygen inserting one oxygen atom into a substrate and reducing the second into a water molecule. Two electrons are provided by NADPH via a two-protein mitochondrial transfer system comprising flavoprotein FDXR (adrenodoxin/ferredoxin reductase) and nonheme iron-sulfur protein FDX1 or FDX2 (adrenodoxin/ferredoxin) (PubMed:11856349, PubMed:1594605, PubMed:23322723, PubMed:9814506). Could also be involved in the androgen metabolic pathway (Probable)</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>CYP11B2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Mineralocorticoid receptor pathway</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">PubMed:40564239,40560995,40556120,40551885,40545362 </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t xml:space="preserve">UniProt:P19099 PubMed:40564239,40560995,40556120,40551885,40545362 Reactome:R-HSA-196071 </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Aldosterone synthase, Aldosterone-synthesizing enzyme, CYPXIB2, Corticosterone 18-monooxygenase, CYP11B2, Cytochrome P-450Aldo, Cytochrome P-450C18, Steroid 11-beta-hydroxylase, CYP11B2, Steroid 18-hydroxylase</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
